--- a/ConceptMap-R5-NutritionIntake-elements-for-R4.xlsx
+++ b/ConceptMap-R5-NutritionIntake-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.6157006-06:00</t>
+    <t>2026-02-09T22:05:44.0656242-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,9 +282,6 @@
     <t>consumedItem</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:type</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t>nutritionProduct</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:nutritionProduct</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:nutritionProduct</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:schedule</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:schedule</t>
   </si>
   <si>
@@ -330,9 +318,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:amount</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:amount</t>
   </si>
   <si>
@@ -342,9 +327,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:rate</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:rate</t>
   </si>
   <si>
@@ -354,9 +336,6 @@
     <t>notConsumed</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:notConsumed</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:notConsumed</t>
   </si>
   <si>
@@ -366,9 +345,6 @@
     <t>notConsumedReason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:consumedItem:notConsumedReason</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:notConsumedReason</t>
   </si>
   <si>
@@ -378,9 +354,6 @@
     <t>ingredientLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:ingredientLabel</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel</t>
   </si>
   <si>
@@ -390,18 +363,12 @@
     <t>nutrient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:ingredientLabel:nutrient</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel:nutrient</t>
   </si>
   <si>
     <t>NutritionIntake.ingredientLabel.amount</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:ingredientLabel:amount</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel:amount</t>
   </si>
   <si>
@@ -411,9 +378,6 @@
     <t>performer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:performer</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer</t>
   </si>
   <si>
@@ -423,9 +387,6 @@
     <t>function</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:performer:function</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer:function</t>
   </si>
   <si>
@@ -433,9 +394,6 @@
   </si>
   <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:performer:actor</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer:actor</t>
@@ -731,7 +689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1031,406 +989,224 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E53" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-NutritionIntake-elements-for-R4.xlsx
+++ b/ConceptMap-R5-NutritionIntake-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.0656242-06:00</t>
+    <t>2026-02-17T14:42:27.4107297-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>instantiatesCanonical</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:instantiatesCanonical</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.instantiatesCanonical</t>
   </si>
   <si>
     <t>NutritionIntake.instantiatesUri</t>
@@ -183,7 +183,7 @@
     <t>instantiatesUri</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:instantiatesUri</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.instantiatesUri</t>
   </si>
   <si>
     <t>NutritionIntake.basedOn</t>
@@ -192,7 +192,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:basedOn</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.basedOn</t>
   </si>
   <si>
     <t>NutritionIntake.partOf</t>
@@ -201,7 +201,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:partOf</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.partOf</t>
   </si>
   <si>
     <t>NutritionIntake.status</t>
@@ -210,7 +210,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.status</t>
   </si>
   <si>
     <t>NutritionIntake.statusReason</t>
@@ -219,7 +219,7 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:statusReason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.statusReason</t>
   </si>
   <si>
     <t>NutritionIntake.code</t>
@@ -228,7 +228,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.code</t>
   </si>
   <si>
     <t>NutritionIntake.subject</t>
@@ -246,7 +246,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:encounter</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.encounter</t>
   </si>
   <si>
     <t>NutritionIntake.occurrence[x]</t>
@@ -255,7 +255,7 @@
     <t>occurrence[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:occurrence</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.occurrence</t>
   </si>
   <si>
     <t>NutritionIntake.recorded</t>
@@ -264,7 +264,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:recorded</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.recorded</t>
   </si>
   <si>
     <t>NutritionIntake.reported[x]</t>
@@ -273,7 +273,7 @@
     <t>reported[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:reported</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.reported</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem</t>
@@ -291,7 +291,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.type</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem.nutritionProduct</t>
@@ -300,7 +300,7 @@
     <t>nutritionProduct</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:nutritionProduct</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.nutritionProduct</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem.schedule</t>
@@ -309,7 +309,7 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:schedule</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.schedule</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem.amount</t>
@@ -318,7 +318,7 @@
     <t>amount</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:amount</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.amount</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem.rate</t>
@@ -327,7 +327,7 @@
     <t>rate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:rate</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.rate</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem.notConsumed</t>
@@ -336,7 +336,7 @@
     <t>notConsumed</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:notConsumed</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.notConsumed</t>
   </si>
   <si>
     <t>NutritionIntake.consumedItem.notConsumedReason</t>
@@ -345,7 +345,7 @@
     <t>notConsumedReason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:notConsumedReason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.notConsumedReason</t>
   </si>
   <si>
     <t>NutritionIntake.ingredientLabel</t>
@@ -363,13 +363,13 @@
     <t>nutrient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel:nutrient</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel.nutrient</t>
   </si>
   <si>
     <t>NutritionIntake.ingredientLabel.amount</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel:amount</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel.amount</t>
   </si>
   <si>
     <t>NutritionIntake.performer</t>
@@ -387,7 +387,7 @@
     <t>function</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer:function</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer.function</t>
   </si>
   <si>
     <t>NutritionIntake.performer.actor</t>
@@ -396,7 +396,7 @@
     <t>actor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer:actor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer.actor</t>
   </si>
   <si>
     <t>NutritionIntake.location</t>
@@ -405,7 +405,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:location</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.location</t>
   </si>
   <si>
     <t>NutritionIntake.derivedFrom</t>
@@ -414,7 +414,7 @@
     <t>derivedFrom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:derivedFrom</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.derivedFrom</t>
   </si>
   <si>
     <t>NutritionIntake.reason</t>
@@ -423,7 +423,7 @@
     <t>reason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:reason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.reason</t>
   </si>
   <si>
     <t>NutritionIntake.note</t>
@@ -432,7 +432,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:note</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake:http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.note</t>
   </si>
 </sst>
 </file>
